--- a/principal/src/main/resources/Templates/JEV-2024.xlsx
+++ b/principal/src/main/resources/Templates/JEV-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnayo\Desktop\Capstone Project\princi-pal-backend-springboot\principal\src\main\resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0B17B0-82A3-44F0-8ABF-7402AA95878C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFAC880-EED1-4686-8748-ADB9F6073BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="540" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOV'23 (JEV)" sheetId="21" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Amount</t>
   </si>
@@ -51,18 +51,6 @@
   </si>
   <si>
     <t>MILA A. BADAYOS</t>
-  </si>
-  <si>
-    <t>Other Suplies &amp; Materials Expenses</t>
-  </si>
-  <si>
-    <t>Training Expenses</t>
-  </si>
-  <si>
-    <t>Transpo/Delivery Expenses</t>
-  </si>
-  <si>
-    <t>Electricity Expenses</t>
   </si>
   <si>
     <t>UACS Object Code</t>
@@ -122,15 +110,6 @@
     </r>
   </si>
   <si>
-    <t>Advances to Operating Expenses</t>
-  </si>
-  <si>
-    <t>Internet Subscription Expenses</t>
-  </si>
-  <si>
-    <t>Communication Expenses</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -165,18 +144,6 @@
   </si>
   <si>
     <t>Appendix 36</t>
-  </si>
-  <si>
-    <t>5020402000</t>
-  </si>
-  <si>
-    <t>5020503000</t>
-  </si>
-  <si>
-    <t>5029904000</t>
-  </si>
-  <si>
-    <t>5020399000</t>
   </si>
 </sst>
 </file>
@@ -823,7 +790,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,12 +877,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -930,12 +891,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1027,6 +982,18 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1189,16 +1156,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1657,8 +1615,8 @@
   </sheetPr>
   <dimension ref="B1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1645,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="75" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J1" s="75"/>
       <c r="K1" s="75"/>
@@ -1718,7 +1676,7 @@
     </row>
     <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="81" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" s="82"/>
       <c r="D4" s="82"/>
@@ -1727,26 +1685,26 @@
       <c r="G4" s="82"/>
       <c r="H4" s="83"/>
       <c r="I4" s="84" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J4" s="84"/>
       <c r="K4" s="85"/>
     </row>
     <row r="5" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="64"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="57"/>
       <c r="J5" s="73"/>
       <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
-        <v>28</v>
+      <c r="B6" s="55" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="100" t="s">
         <v>2</v>
@@ -1754,48 +1712,48 @@
       <c r="D6" s="100"/>
       <c r="E6" s="100"/>
       <c r="F6" s="100"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="60"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="56"/>
       <c r="I6" s="101" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J6" s="102"/>
       <c r="K6" s="103"/>
     </row>
     <row r="7" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="59" t="s">
-        <v>26</v>
+      <c r="B7" s="55" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="104" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="104"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="56"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="52"/>
       <c r="I7" s="105"/>
       <c r="J7" s="106"/>
       <c r="K7" s="107"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="49"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="86" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D9" s="89"/>
       <c r="E9" s="89"/>
@@ -1809,11 +1767,11 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="87"/>
       <c r="C10" s="91" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D10" s="92"/>
       <c r="E10" s="95" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="97" t="s">
         <v>0</v>
@@ -1830,26 +1788,26 @@
       <c r="D11" s="94"/>
       <c r="E11" s="96"/>
       <c r="F11" s="99" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
       <c r="I11" s="99"/>
       <c r="J11" s="108" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K11" s="109"/>
       <c r="M11" s="110"/>
       <c r="N11" s="110"/>
-      <c r="O11" s="48"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="47"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="111"/>
       <c r="D12" s="112"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="45" t="s">
-        <v>20</v>
+      <c r="E12" s="42"/>
+      <c r="F12" s="41" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="113"/>
       <c r="H12" s="114"/>
@@ -1860,220 +1818,183 @@
       <c r="O12" s="33"/>
     </row>
     <row r="13" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="44">
-        <v>5020502001</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="41"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
       <c r="M13" s="2"/>
       <c r="O13" s="33"/>
     </row>
     <row r="14" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
-      <c r="C14" s="125" t="s">
-        <v>7</v>
-      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="125"/>
       <c r="D14" s="126"/>
-      <c r="E14" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="127">
-        <v>14705.47</v>
-      </c>
-      <c r="H14" s="128"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="130"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
       <c r="M14" s="2"/>
       <c r="O14" s="33"/>
     </row>
     <row r="15" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="34"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
       <c r="M15" s="2"/>
       <c r="O15" s="33"/>
     </row>
     <row r="16" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="133" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="127">
-        <f>350-54.47</f>
-        <v>295.52999999999997</v>
-      </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="34"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
       <c r="M16" s="2"/>
       <c r="O16" s="33"/>
     </row>
     <row r="17" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
-      <c r="C17" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="38">
-        <v>5020201000</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="127">
-        <v>28749</v>
-      </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="34"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
       <c r="M17" s="2"/>
       <c r="O17" s="33"/>
     </row>
     <row r="18" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32"/>
-      <c r="C18" s="136" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="31" t="s">
-        <v>35</v>
-      </c>
+      <c r="C18" s="133"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="30"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="142"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="139"/>
     </row>
     <row r="19" spans="2:17" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
-      <c r="C19" s="118" t="s">
-        <v>17</v>
-      </c>
+      <c r="C19" s="118"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="29">
-        <v>1990101000</v>
-      </c>
+      <c r="E19" s="29"/>
       <c r="F19" s="24"/>
       <c r="G19" s="120"/>
       <c r="H19" s="121"/>
       <c r="I19" s="122"/>
-      <c r="J19" s="123">
-        <v>43750</v>
-      </c>
+      <c r="J19" s="123"/>
       <c r="K19" s="124"/>
     </row>
     <row r="20" spans="2:17" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="143"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="140"/>
       <c r="E20" s="29"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="143"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="140"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="142"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="139"/>
     </row>
     <row r="21" spans="2:17" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="145"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
       <c r="E21" s="29"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="143"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="140"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="142"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="139"/>
     </row>
     <row r="22" spans="2:17" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
-      <c r="C22" s="146" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="147"/>
+      <c r="C22" s="143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="144"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="143"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="140"/>
       <c r="I22" s="23"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="142"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="139"/>
       <c r="P22" s="27"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="25"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="146"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="152" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="152"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155"/>
+      <c r="G23" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="149"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="152"/>
       <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="146"/>
       <c r="E24" s="21"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="159"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="156"/>
     </row>
     <row r="25" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="151"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="148"/>
       <c r="E25" s="18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25" s="17"/>
-      <c r="G25" s="160">
+      <c r="G25" s="157">
         <f>SUM(G13:G24)</f>
-        <v>43750</v>
-      </c>
-      <c r="H25" s="160"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162">
-        <f>J19</f>
-        <v>43750</v>
-      </c>
-      <c r="K25" s="163"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="157"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="159">
+        <f>SUM(J13:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="160"/>
       <c r="N25" s="16">
         <f>G25-J25</f>
         <v>0</v>
@@ -2095,66 +2016,66 @@
     </row>
     <row r="27" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="167"/>
+      <c r="E27" s="163" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="164"/>
     </row>
     <row r="28" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="171"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="168"/>
       <c r="O28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="172" t="s">
+      <c r="B29" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="175"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="171" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="172"/>
     </row>
     <row r="30" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
       <c r="D30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="170" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="171"/>
+        <v>6</v>
+      </c>
+      <c r="E30" s="167" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="168"/>
     </row>
     <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
@@ -2163,49 +2084,49 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="165"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="162"/>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="67"/>
-      <c r="E37" s="66"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="68"/>
-      <c r="E38" s="66"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="69"/>
-      <c r="E39" s="66"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="62"/>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="70"/>
-      <c r="E40" s="71"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="70"/>
-      <c r="E41" s="72"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="68"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="70"/>
-      <c r="E42" s="48"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="44"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="70"/>
-      <c r="E43" s="48"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="64">
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="E27:K27"/>
     <mergeCell ref="B28:D28"/>
@@ -2260,12 +2181,16 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:K10"/>
     <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J5:K5"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="1.9685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/principal/src/main/resources/Templates/JEV-2024.xlsx
+++ b/principal/src/main/resources/Templates/JEV-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnayo\Desktop\Capstone Project\princi-pal-backend-springboot\principal\src\main\resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFAC880-EED1-4686-8748-ADB9F6073BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F9436-12F4-4CF3-A7AE-7BA1A9B5E076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="540" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOV'23 (JEV)" sheetId="21" r:id="rId1"/>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>UACS Object Code</t>
-  </si>
-  <si>
-    <t>Accountant III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ADAS II</t>
   </si>
   <si>
     <t>EULIMAE G. MAHILUM, CPA</t>
@@ -145,6 +139,12 @@
   <si>
     <t>Appendix 36</t>
   </si>
+  <si>
+    <t>ADAS II</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
 </sst>
 </file>
 
@@ -790,7 +790,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -804,15 +804,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -982,14 +973,308 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1000,299 +1285,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1615,8 +1612,8 @@
   </sheetPr>
   <dimension ref="B1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,11 +1641,11 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="I1" s="156" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
     </row>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
@@ -1663,419 +1660,419 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
     </row>
     <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
+      <c r="B4" s="162" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="165" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="165"/>
+      <c r="K4" s="166"/>
     </row>
     <row r="5" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="169"/>
     </row>
     <row r="6" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="100" t="s">
+      <c r="B6" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="102"/>
-      <c r="K6" s="103"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="133" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
     </row>
     <row r="7" spans="2:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="104" t="s">
+      <c r="B7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="107"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="42"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
+      <c r="B9" s="142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="146"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="87"/>
-      <c r="C10" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="95" t="s">
+      <c r="B10" s="143"/>
+      <c r="C10" s="147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="148"/>
+      <c r="E10" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="97" t="s">
+      <c r="F10" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="98"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="154"/>
     </row>
     <row r="11" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="88"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="108" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="109"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="44"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="141"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="41"/>
     </row>
     <row r="12" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="117"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="112"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
       <c r="M12" s="2"/>
-      <c r="O12" s="33"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="128"/>
       <c r="D13" s="129"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="127"/>
       <c r="M13" s="2"/>
-      <c r="O13" s="33"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="127"/>
       <c r="M14" s="2"/>
-      <c r="O14" s="33"/>
+      <c r="O14" s="30"/>
     </row>
     <row r="15" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="130"/>
       <c r="D15" s="131"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="72"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="167"/>
       <c r="M15" s="2"/>
-      <c r="O15" s="33"/>
+      <c r="O15" s="30"/>
     </row>
     <row r="16" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="130"/>
       <c r="D16" s="131"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="167"/>
       <c r="M16" s="2"/>
-      <c r="O16" s="33"/>
+      <c r="O16" s="30"/>
     </row>
     <row r="17" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="167"/>
       <c r="M17" s="2"/>
-      <c r="O17" s="33"/>
+      <c r="O17" s="30"/>
     </row>
     <row r="18" spans="2:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="139"/>
-    </row>
-    <row r="19" spans="2:17" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="124"/>
-    </row>
-    <row r="20" spans="2:17" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="139"/>
-    </row>
-    <row r="21" spans="2:17" s="26" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="139"/>
-    </row>
-    <row r="22" spans="2:17" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="143" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="144"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="139"/>
-      <c r="P22" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="86"/>
+    </row>
+    <row r="19" spans="2:17" s="23" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="123"/>
+    </row>
+    <row r="20" spans="2:17" s="23" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="86"/>
+    </row>
+    <row r="21" spans="2:17" s="23" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="86"/>
+    </row>
+    <row r="22" spans="2:17" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="86"/>
+      <c r="P22" s="24"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="149" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="149"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="152"/>
-      <c r="Q23" s="16"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="Q23" s="13"/>
     </row>
     <row r="24" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="156"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="94"/>
     </row>
     <row r="25" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="157">
+      <c r="B25" s="16"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="95">
         <f>SUM(G13:G24)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="157"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159">
+      <c r="H25" s="95"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="97">
         <f>SUM(J13:K21)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="160"/>
-      <c r="N25" s="16">
+      <c r="K25" s="98"/>
+      <c r="N25" s="13">
         <f>G25-J25</f>
         <v>0</v>
       </c>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="2:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="164"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="69"/>
     </row>
     <row r="28" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="165"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="168"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
       <c r="O28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="171" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="172"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
     </row>
     <row r="30" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="167" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="168"/>
+      <c r="B30" s="171" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="170"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
@@ -2084,76 +2081,70 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="162"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="63"/>
-      <c r="E37" s="62"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="59"/>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="64"/>
-      <c r="E38" s="62"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="59"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="65"/>
-      <c r="E39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="59"/>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="66"/>
-      <c r="E40" s="67"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="66"/>
-      <c r="E41" s="68"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="65"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="66"/>
-      <c r="E42" s="44"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="41"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="66"/>
-      <c r="E43" s="44"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="C22:D25"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
+  <mergeCells count="65">
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="G12:I12"/>
@@ -2170,27 +2161,34 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C22:D25"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="1.9685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
